--- a/TestXML1.xlsx
+++ b/TestXML1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="9">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,9 @@
         <v>4</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
@@ -480,7 +482,9 @@
         <v>5</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
@@ -499,7 +503,9 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
       </c>

--- a/TestXML1.xlsx
+++ b/TestXML1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="9">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,9 +461,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
@@ -482,9 +480,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
@@ -503,9 +499,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
